--- a/biology/Botanique/Haworthia_viscosa/Haworthia_viscosa.xlsx
+++ b/biology/Botanique/Haworthia_viscosa/Haworthia_viscosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haworthia viscosa est une espèce de plante de la famille des Liliaceae selon la classification classique, de celle des Asphodelaceae selon la classification phylogénétique ou encore de celle des Xanthorrhoeaceae selon la classification APG III (2009). cette espèce est endémique à l'Afrique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aloe pseudotortuosa Salm-Dyck
 Aloe viscosa L. (basionyme)
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique du sud: Cap-Oriental, Cap-Occidental.
 </t>
